--- a/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
+++ b/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\MemoryResearch\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\マージ用12.22\MemoryResearch\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F27431C-97D3-42DA-B1D1-D0FDFF36D39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8592460-64C8-41B9-B092-04D5C0426EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="1935" windowWidth="13380" windowHeight="12810" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモリデータ設定用" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mgU+mVvgKFANv6tUf0DVBc1Z5WSNw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mhTfEOqbgdG5WMz2jQHYKPxcvfhlQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -65,14 +65,6 @@
   </si>
   <si>
     <t>存在しない</t>
-  </si>
-  <si>
-    <t>使い方
-Hでメモリの種類を追加
-（名前英語にしてますが、読み込みの際にはidしか使ってないので日本語でも大丈夫です）
-Aのプルダウンメニューからメモリの種類を選択
-Cで説明追加
-DEFの素材はプルダウンメニューから選択</t>
   </si>
   <si>
     <t>Jump</t>
@@ -106,7 +98,7 @@
   </si>
   <si>
     <t>エアダッシュのデータが入ったメモリ
-空中で進みたい方向に突進する クウチュウホコウ！</t>
+空中で進みたい方向に突進 クウチュウホコウ！</t>
   </si>
   <si>
     <t>ダッシュのデータが入ったメモリ
@@ -304,6 +296,67 @@
   <si>
     <t>material_3</t>
   </si>
+  <si>
+    <t>使い方
+■列Kでメモリの種類を追加
+（名前英語にしてますが、読み込みの際にはidしか使ってないので日本語でも大丈夫です）
+■列Aのプルダウンメニューからメモリの種類を選択
+■列Cで説明追加
+■列DEFの素材はプルダウンメニューから選択
+//プログラマー用↓
+※読み込む際の注意
+必ず列Kのメモリの種類を主キーとして、コード内で同じ並びのEnumを作成し使用してください。
+そうしないと、読み込みの順番がバラバラになってしまいます。</t>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +383,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -663,27 +715,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
     <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
+    <row r="1" spans="1:27" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18.75">
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -742,27 +794,31 @@
         <v>0</v>
       </c>
       <c r="O2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -777,37 +833,41 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="K3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="1:23" ht="18.75">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -816,37 +876,41 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-    </row>
-    <row r="5" spans="1:23" ht="18.75">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -855,37 +919,41 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.75">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -894,31 +962,35 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.75">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -933,31 +1005,35 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -972,37 +1048,41 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-    </row>
-    <row r="9" spans="1:23" ht="18.75">
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -1011,22 +1091,35 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="18.75">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -1041,133 +1134,198 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="18.75">
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="18.75">
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="K12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="18.75">
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="K13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="18.75">
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="K14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="18.75">
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1189,13 +1347,26 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="K15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="18.75">
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1217,13 +1388,26 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75">
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:27" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1248,8 +1432,21 @@
       <c r="L17" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="18.75">
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1274,8 +1471,21 @@
       <c r="L18" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="18.75">
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+    </row>
+    <row r="19" spans="1:27" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1300,8 +1510,21 @@
       <c r="L19" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="18.75">
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+    </row>
+    <row r="20" spans="1:27" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1326,8 +1549,21 @@
       <c r="L20" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="18.75">
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1352,8 +1588,21 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75">
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1378,8 +1627,21 @@
       <c r="L22" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="18.75">
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1404,8 +1666,21 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="18.75">
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,8 +1705,21 @@
       <c r="L24" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="18.75">
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+    </row>
+    <row r="25" spans="1:27" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1456,8 +1744,21 @@
       <c r="L25" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="18.75">
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+    </row>
+    <row r="26" spans="1:27" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1482,8 +1783,21 @@
       <c r="L26" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="18.75">
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+    </row>
+    <row r="27" spans="1:27" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1508,8 +1822,21 @@
       <c r="L27" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="18.75">
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+    </row>
+    <row r="28" spans="1:27" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1534,8 +1861,21 @@
       <c r="L28" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="18.75">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+    </row>
+    <row r="29" spans="1:27" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1560,8 +1900,21 @@
       <c r="L29" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="18.75">
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+    </row>
+    <row r="30" spans="1:27" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1586,11 +1939,37 @@
       <c r="L30" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="18.75">
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+    </row>
+    <row r="31" spans="1:27" ht="18.75">
       <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" ht="18.75">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+    </row>
+    <row r="32" spans="1:27" ht="18.75">
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="12:12" ht="18.75">
@@ -4499,7 +4878,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O2:W8"/>
+    <mergeCell ref="O2:AA31"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
@@ -4530,36 +4909,36 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="J2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -4589,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -4602,7 +4981,7 @@
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="J4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -4615,7 +4994,7 @@
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="J5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -4628,7 +5007,7 @@
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
       <c r="J6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -4641,10 +5020,10 @@
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -4657,25 +5036,25 @@
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
@@ -4706,33 +5085,33 @@
         <v>5</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1"/>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
@@ -4764,24 +5143,24 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1">
@@ -4806,27 +5185,27 @@
     <row r="20" spans="1:6" ht="18.75" customHeight="1"/>
     <row r="21" spans="1:6" ht="18.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1">
@@ -4854,27 +5233,27 @@
     <row r="26" spans="1:6" ht="18.75" customHeight="1"/>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
       <c r="A28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
@@ -5884,9 +6263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T1015"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5897,27 +6274,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -5938,7 +6315,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -5951,7 +6328,7 @@
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="K4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -5964,7 +6341,7 @@
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="K5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -5987,7 +6364,7 @@
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
@@ -6003,10 +6380,10 @@
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6022,10 +6399,10 @@
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -6041,21 +6418,21 @@
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -6063,21 +6440,21 @@
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="17">
         <v>3</v>
@@ -6085,10 +6462,10 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="17">
         <v>4</v>
@@ -6096,10 +6473,10 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -6107,10 +6484,10 @@
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6">
         <v>5</v>
@@ -6118,10 +6495,10 @@
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C17" s="6">
         <v>4</v>
@@ -6129,10 +6506,10 @@
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -6140,10 +6517,10 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -6151,21 +6528,21 @@
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C21" s="17">
         <v>2</v>
@@ -6173,10 +6550,10 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="17">
         <v>4</v>
@@ -6184,10 +6561,10 @@
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -6195,21 +6572,21 @@
     </row>
     <row r="24" spans="1:3" ht="18.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -6217,21 +6594,21 @@
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="17">
         <v>6</v>
@@ -6239,10 +6616,10 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="17">
         <v>5</v>
@@ -6250,21 +6627,21 @@
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
         <v>5</v>
@@ -6272,10 +6649,10 @@
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6">
         <v>8</v>
@@ -6283,21 +6660,21 @@
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="17">
         <v>8</v>
@@ -6305,10 +6682,10 @@
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6">
         <v>12</v>
@@ -7309,16 +7686,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="99.85546875" customWidth="1"/>
+    <col min="4" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
@@ -7327,22 +7704,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -7460,7 +7837,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A6,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A6,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>エアダッシュのデータが入ったメモリ/n空中で進みたい方向に突進する クウチュウホコウ！</v>
+        <v>エアダッシュのデータが入ったメモリ/n空中で進みたい方向に突進 クウチュウホコウ！</v>
       </c>
       <c r="D6" s="5">
         <f>VLOOKUP(VLOOKUP($A6,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -13953,7 +14330,7 @@
       <c r="I1000" s="18"/>
       <c r="J1000" s="18"/>
     </row>
-    <row r="1001" spans="1:10" ht="18.75">
+    <row r="1001" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1001" s="18"/>
       <c r="B1001" s="18"/>
       <c r="I1001" s="18"/>

--- a/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
+++ b/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\マージ用12.22\MemoryResearch\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\MemoryResearch\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8592460-64C8-41B9-B092-04D5C0426EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A77A85-D880-41CA-A719-DA41362AC3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1935" windowWidth="13380" windowHeight="12810" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモリデータ設定用" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4937,16 +4937,16 @@
       <c r="J2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
       <c r="A3" s="8">
@@ -4970,53 +4970,53 @@
       <c r="J3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="J5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
       <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -5025,14 +5025,14 @@
       <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -5056,14 +5056,14 @@
       <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
       <c r="A9" s="8">
@@ -6296,13 +6296,13 @@
       <c r="M2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
       <c r="A3" s="6">
@@ -6317,50 +6317,50 @@
       <c r="K3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="K4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="K5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -6369,14 +6369,14 @@
       <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -6388,14 +6388,14 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -6407,14 +6407,14 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -7687,7 +7687,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
+++ b/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\MemoryResearch\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A77A85-D880-41CA-A719-DA41362AC3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96FA7B-C29A-40F2-BC8B-1C7FD1E31433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="2145" windowWidth="13380" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモリデータ設定用" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="82">
   <si>
     <t>メモリの種類</t>
   </si>
@@ -357,6 +357,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>合成コスト</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -456,11 +463,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,6 +535,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -717,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -729,7 +767,8 @@
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="10" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" customWidth="1"/>
     <col min="13" max="26" width="8.7109375" customWidth="1"/>
@@ -751,10 +790,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="3" t="s">
@@ -781,10 +822,10 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="3" t="s">
@@ -826,10 +867,10 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -869,10 +910,10 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="K4" s="3" t="s">
@@ -912,10 +953,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5" s="3" t="s">
@@ -955,10 +996,10 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="3" t="s">
@@ -998,10 +1039,10 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="3" t="s">
@@ -1041,10 +1082,10 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="9" t="s">
@@ -1084,10 +1125,10 @@
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="3" t="s">
@@ -1127,10 +1168,10 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="9" t="s">
@@ -1170,10 +1211,10 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="9" t="s">
@@ -1213,10 +1254,10 @@
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="K12" s="9" t="s">
@@ -1256,10 +1297,10 @@
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="K13" s="9" t="s">
@@ -1299,10 +1340,10 @@
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="K14" s="9" t="s">
@@ -1340,10 +1381,10 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="K15" s="9" t="s">
@@ -1381,10 +1422,10 @@
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="9" t="s">
@@ -1422,10 +1463,10 @@
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="K17" s="3"/>
@@ -1461,10 +1502,10 @@
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="K18" s="3"/>
@@ -1500,10 +1541,10 @@
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="3"/>
@@ -1539,10 +1580,10 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="K20" s="3"/>
@@ -1578,10 +1619,10 @@
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="3"/>
@@ -1617,10 +1658,10 @@
       <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="K22" s="3"/>
@@ -1656,10 +1697,10 @@
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="K23" s="3"/>
@@ -1695,10 +1736,10 @@
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="K24" s="3"/>
@@ -1734,10 +1775,10 @@
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="K25" s="3"/>
@@ -1773,10 +1814,10 @@
       <c r="E26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="K26" s="3"/>
@@ -1812,10 +1853,10 @@
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="K27" s="3"/>
@@ -1851,10 +1892,10 @@
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="K28" s="3"/>
@@ -1890,10 +1931,10 @@
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="K29" s="3"/>
@@ -1929,10 +1970,10 @@
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="K30" s="3"/>
@@ -7686,8 +7727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
+++ b/MemoryResearch/Assets/Resources/Data/AdjustmentData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\マージ用12.22\MemoryResearch\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\MemoryResearch\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8592460-64C8-41B9-B092-04D5C0426EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96FA7B-C29A-40F2-BC8B-1C7FD1E31433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1935" windowWidth="13380" windowHeight="12810" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="2145" windowWidth="13380" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メモリデータ設定用" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="82">
   <si>
     <t>メモリの種類</t>
   </si>
@@ -357,6 +357,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>合成コスト</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -456,11 +463,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,13 +528,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -717,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -729,7 +767,8 @@
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="10" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" customWidth="1"/>
     <col min="13" max="26" width="8.7109375" customWidth="1"/>
@@ -751,10 +790,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="3" t="s">
@@ -781,10 +822,10 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="3" t="s">
@@ -826,10 +867,10 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -869,10 +910,10 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="K4" s="3" t="s">
@@ -912,10 +953,10 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5" s="3" t="s">
@@ -955,10 +996,10 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="3" t="s">
@@ -998,10 +1039,10 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="3" t="s">
@@ -1041,10 +1082,10 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="9" t="s">
@@ -1084,10 +1125,10 @@
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="3" t="s">
@@ -1127,10 +1168,10 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="9" t="s">
@@ -1170,10 +1211,10 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="9" t="s">
@@ -1213,10 +1254,10 @@
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="K12" s="9" t="s">
@@ -1256,10 +1297,10 @@
       <c r="E13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="K13" s="9" t="s">
@@ -1299,10 +1340,10 @@
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="K14" s="9" t="s">
@@ -1340,10 +1381,10 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="K15" s="9" t="s">
@@ -1381,10 +1422,10 @@
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="K16" s="9" t="s">
@@ -1422,10 +1463,10 @@
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="K17" s="3"/>
@@ -1461,10 +1502,10 @@
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="K18" s="3"/>
@@ -1500,10 +1541,10 @@
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="K19" s="3"/>
@@ -1539,10 +1580,10 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="K20" s="3"/>
@@ -1578,10 +1619,10 @@
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="K21" s="3"/>
@@ -1617,10 +1658,10 @@
       <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="K22" s="3"/>
@@ -1656,10 +1697,10 @@
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="K23" s="3"/>
@@ -1695,10 +1736,10 @@
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="K24" s="3"/>
@@ -1734,10 +1775,10 @@
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="K25" s="3"/>
@@ -1773,10 +1814,10 @@
       <c r="E26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="K26" s="3"/>
@@ -1812,10 +1853,10 @@
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="K27" s="3"/>
@@ -1851,10 +1892,10 @@
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="K28" s="3"/>
@@ -1890,10 +1931,10 @@
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="K29" s="3"/>
@@ -1929,10 +1970,10 @@
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="K30" s="3"/>
@@ -4937,16 +4978,16 @@
       <c r="J2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
       <c r="A3" s="8">
@@ -4970,53 +5011,53 @@
       <c r="J3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="J4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="J5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
       <c r="J6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -5025,14 +5066,14 @@
       <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -5056,14 +5097,14 @@
       <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
       <c r="A9" s="8">
@@ -6296,13 +6337,13 @@
       <c r="M2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1">
       <c r="A3" s="6">
@@ -6317,50 +6358,50 @@
       <c r="K3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="K4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="K5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -6369,14 +6410,14 @@
       <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -6388,14 +6429,14 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -6407,14 +6448,14 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -7686,8 +7727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
